--- a/data/total/2612年.xlsx
+++ b/data/total/2612年.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEJ Pro\TejPro\DataExport\#1230\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\#tmp\python-\python-webstorm-TEJ-Banking-and-Finance\data\total\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83AB313F-C2E2-4FE2-BCA3-100A270426B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FFBCDF-5E6B-4D27-870E-F03CE65E8885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17196" windowHeight="5688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>最低價(元)</t>
   </si>
   <si>
-    <t>收盤價(元)</t>
-  </si>
-  <si>
     <t>成交量(百萬股)_年</t>
   </si>
   <si>
@@ -326,6 +323,10 @@
   </si>
   <si>
     <t>2003/12/31</t>
+  </si>
+  <si>
+    <t>收盤價</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -335,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,###"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +356,13 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -377,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -387,6 +395,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -672,38 +683,38 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.375" customWidth="1"/>
-    <col min="8" max="9" width="13.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="13" width="15" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" customWidth="1"/>
-    <col min="18" max="18" width="12.25" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="16.875" customWidth="1"/>
-    <col min="21" max="22" width="16.375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.875" customWidth="1"/>
-    <col min="24" max="24" width="12.75" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="11.375" customWidth="1"/>
-    <col min="28" max="28" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
+    <col min="21" max="22" width="16.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -716,82 +727,82 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="B2" s="3">
         <v>58.9</v>
@@ -848,7 +859,7 @@
         <v>8.9</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U2" s="3">
         <v>0.69</v>
@@ -857,7 +868,7 @@
         <v>1.88</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X2" s="3">
         <v>6.45</v>
@@ -869,15 +880,15 @@
         <v>48.887</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="B3" s="3">
         <v>35.6</v>
@@ -934,7 +945,7 @@
         <v>68.16</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="3">
         <v>1.1200000000000001</v>
@@ -943,7 +954,7 @@
         <v>3.46</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" s="3">
         <v>2.74</v>
@@ -955,15 +966,15 @@
         <v>180.45330000000001</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B4" s="3">
         <v>29.75</v>
@@ -1020,7 +1031,7 @@
         <v>48.73</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U4" s="3">
         <v>0.71</v>
@@ -1029,7 +1040,7 @@
         <v>2.14</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X4" s="3">
         <v>2.27</v>
@@ -1041,15 +1052,15 @@
         <v>69.747900000000001</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="B5" s="3">
         <v>31.2</v>
@@ -1106,7 +1117,7 @@
         <v>13.64</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U5" s="3">
         <v>0.56999999999999995</v>
@@ -1115,7 +1126,7 @@
         <v>1.52</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X5" s="3">
         <v>5.38</v>
@@ -1127,15 +1138,15 @@
         <v>39.807400000000001</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="B6" s="3">
         <v>28.9</v>
@@ -1192,7 +1203,7 @@
         <v>14.99</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U6" s="3">
         <v>0.62</v>
@@ -1201,7 +1212,7 @@
         <v>1.69</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X6" s="3">
         <v>1.61</v>
@@ -1213,15 +1224,15 @@
         <v>34.843200000000003</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="B7" s="3">
         <v>26.9</v>
@@ -1272,13 +1283,13 @@
         <v>92</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S7" s="3">
         <v>590.15</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U7" s="3">
         <v>0.6</v>
@@ -1287,7 +1298,7 @@
         <v>1.77</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X7" s="3">
         <v>1.74</v>
@@ -1299,15 +1310,15 @@
         <v>38.636400000000002</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="B8" s="3">
         <v>20.9</v>
@@ -1364,7 +1375,7 @@
         <v>19.77</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U8" s="3">
         <v>0.52</v>
@@ -1373,7 +1384,7 @@
         <v>1.57</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X8" s="3">
         <v>0.98</v>
@@ -1385,15 +1396,15 @@
         <v>72.792400000000001</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="B9" s="3">
         <v>34.700000000000003</v>
@@ -1450,7 +1461,7 @@
         <v>15.57</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U9" s="3">
         <v>0.49</v>
@@ -1459,7 +1470,7 @@
         <v>1.58</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X9" s="3">
         <v>6.21</v>
@@ -1471,15 +1482,15 @@
         <v>51.457700000000003</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B10" s="3">
         <v>40.6</v>
@@ -1536,7 +1547,7 @@
         <v>35.6</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U10" s="3">
         <v>0.86</v>
@@ -1545,7 +1556,7 @@
         <v>2.54</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X10" s="3">
         <v>4.37</v>
@@ -1557,15 +1568,15 @@
         <v>27.036999999999999</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="B11" s="3">
         <v>38.700000000000003</v>
@@ -1622,7 +1633,7 @@
         <v>29.36</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U11" s="3">
         <v>1.04</v>
@@ -1631,7 +1642,7 @@
         <v>3.09</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X11" s="3">
         <v>2.4700000000000002</v>
@@ -1643,15 +1654,15 @@
         <v>36.493499999999997</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB11" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="B12" s="3">
         <v>41.5</v>
@@ -1708,7 +1719,7 @@
         <v>25.61</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U12" s="3">
         <v>1.02</v>
@@ -1717,7 +1728,7 @@
         <v>6.59</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X12" s="3">
         <v>5.19</v>
@@ -1729,15 +1740,15 @@
         <v>41.362499999999997</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB12" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="B13" s="3">
         <v>68.3</v>
@@ -1794,7 +1805,7 @@
         <v>9.25</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U13" s="3">
         <v>1.0900000000000001</v>
@@ -1803,7 +1814,7 @@
         <v>6.39</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X13" s="3">
         <v>7.79</v>
@@ -1815,15 +1826,15 @@
         <v>42.7941</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="B14" s="3">
         <v>89.3</v>
@@ -1880,7 +1891,7 @@
         <v>9.74</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U14" s="3">
         <v>1.83</v>
@@ -1889,7 +1900,7 @@
         <v>11.11</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X14" s="3">
         <v>8.82</v>
@@ -1901,15 +1912,15 @@
         <v>31.131</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB14" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="B15" s="3">
         <v>52</v>
@@ -1966,7 +1977,7 @@
         <v>6.11</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U15" s="3">
         <v>2.4300000000000002</v>
@@ -1975,7 +1986,7 @@
         <v>16.05</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="X15" s="3">
         <v>7.61</v>
@@ -1987,15 +1998,15 @@
         <v>107.7075</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB15" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="B16" s="3">
         <v>92.5</v>
@@ -2052,7 +2063,7 @@
         <v>3.45</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U16" s="3">
         <v>1.74</v>
@@ -2061,7 +2072,7 @@
         <v>6.44</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X16" s="3">
         <v>11.86</v>
@@ -2073,15 +2084,15 @@
         <v>105.3514</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB16" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="B17" s="3">
         <v>41.5</v>
@@ -2138,7 +2149,7 @@
         <v>10.3</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U17" s="3">
         <v>4.37</v>
@@ -2147,7 +2158,7 @@
         <v>13.82</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X17" s="3">
         <v>1.97</v>
@@ -2159,15 +2170,15 @@
         <v>289.15660000000003</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB17" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="B18" s="3">
         <v>17.5</v>
@@ -2224,7 +2235,7 @@
         <v>9.26</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U18" s="3">
         <v>2.54</v>
@@ -2233,7 +2244,7 @@
         <v>6.49</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X18" s="3">
         <v>2.19</v>
@@ -2245,15 +2256,15 @@
         <v>142.73740000000001</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB18" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="B19" s="3">
         <v>18</v>
@@ -2310,7 +2321,7 @@
         <v>9.34</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U19" s="3">
         <v>1.35</v>
@@ -2319,7 +2330,7 @@
         <v>2.54</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X19" s="3">
         <v>2.66</v>
@@ -2331,15 +2342,15 @@
         <v>74.860299999999995</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB19" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="B20" s="3">
         <v>12.9</v>
@@ -2396,7 +2407,7 @@
         <v>15.83</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U20" s="3">
         <v>1.44</v>
@@ -2405,7 +2416,7 @@
         <v>2.85</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X20" s="3">
         <v>5.59</v>
@@ -2417,15 +2428,15 @@
         <v>69.921899999999994</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB20" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="B21" s="3">
         <v>7.25</v>
@@ -2482,7 +2493,7 @@
         <v>9.9600000000000009</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U21" s="3">
         <v>1.05</v>
@@ -2491,7 +2502,7 @@
         <v>2.17</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X21" s="3">
         <v>0.78</v>
@@ -2503,19 +2514,18 @@
         <v>107.63890000000001</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:28" ht="15" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AB21" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:AB21 A1:D1 F1:AB1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>